--- a/ScrumBoard - Banking II.xlsx
+++ b/ScrumBoard - Banking II.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="199" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9C95ABF2-B364-4B0E-AD94-029031B96DD8}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Work\Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D75939-1EC3-4EC2-BC4F-8A2598B9683E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sprint 1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sprint 2" sheetId="1" r:id="rId2"/>
+    <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>User Story</t>
   </si>
@@ -45,10 +49,6 @@
   </si>
   <si>
     <t>Done</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Customer Login, Admin Login, Admin Approval[Riya Hoondlani]
- </t>
   </si>
   <si>
     <t xml:space="preserve">1.1 Develop repositories,services,controllers for customer login
@@ -57,68 +57,50 @@
 </t>
   </si>
   <si>
-    <t>1. Admin side code for approval backend.   2. Admin side dashboard for approval</t>
-  </si>
-  <si>
-    <t>1. Customer login back end
-2. Customer login front end.  
-3. Entity classes                                                                            
-4. Back end of loginTo do-
-5. AdminLogin backend
-6.AdminLogin front end
-7. Apply checks to login and password fields at both customer and admin end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- 2. Create Account[Shantanu Bisht]
-</t>
-  </si>
-  <si>
     <t>2.1 Develop repositories,services,controllers for customer login
  2.2 Develop the angular components for customer login 
 2.3 Integrate Front end and back end</t>
   </si>
   <si>
-    <t xml:space="preserve">1.Back end of registration almost done where i am able to extract and save data in data base. Now inserting all the required fields.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- 3. Fund Transfer[Pradeep]
-</t>
-  </si>
-  <si>
     <t>3.1 Develop repositories,services,controllers for fund transfer
  3.2 Develop the angular components for fund transfer
  3.3 Integrate Front end and back end</t>
   </si>
   <si>
-    <t>Completed backend and frontend and integration
-few validations are pending and working on them  
-working on fetching list of accounts and list of beneficiaries</t>
+    <t>Addition of Few more things in FrontEnd, Dashboard, Routing, Redirection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Customer Login, Admin Login, Admin Approval[Sunil Kumar]
+ </t>
   </si>
   <si>
     <t xml:space="preserve">
- 4. Add Beneficiary, Change Password, Forget Password[Neelam Tiwari].</t>
-  </si>
-  <si>
-    <t>Addition of Few more things in FrontEnd, Dashboard, Routing, Redirection</t>
-  </si>
-  <si>
-    <t>Addition of few more validations
-.Addition of Few more things in FrontEnd, Dashboard, Routing, Redirection</t>
-  </si>
-  <si>
-    <t>4.1 Develop repositories,services,controllers for Add beneficiary,Changing Password,ForgetPassword. 
-4.2 Develop the angular components for Adding Add beneficiary,Changing Password,ForgetPassword. 
-4.3 Integrate Front end and back end of respective functionalities.</t>
+ 2. Create Account[Aswani]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1 Develop repositories,services,controllers for customer login
+1.2 Develop the angular components for customer login
+1.3 Integrate Front end and back end </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3. Fund Transfer[Harsha Patil]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ 4. Fund Transfer[Manikandan]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ 5. Add Beneficiary, Change Password, Forget Password[Nidhi Jha].</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,13 +127,6 @@
       <color rgb="FFB4C6E7"/>
       <name val="Calibri"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -198,7 +173,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -249,17 +224,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -300,60 +264,18 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -365,56 +287,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -730,24 +627,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3E584A-5929-4AA1-AAD7-151F760631E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" customWidth="1"/>
-    <col min="2" max="2" width="35.28515625" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="36" customHeight="1">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -757,7 +654,7 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -767,117 +664,49 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="141" customHeight="1">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:6" ht="137.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="16" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="132" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="20" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="90">
-      <c r="A3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="20"/>
-    </row>
-    <row r="4" spans="1:6" ht="105">
-      <c r="A4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="20"/>
-    </row>
-    <row r="5" spans="1:6" ht="171.75" customHeight="1">
-      <c r="A5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="F6" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="36" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="210" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
